--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H2">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.463391</v>
+        <v>52.271196</v>
       </c>
       <c r="N2">
-        <v>88.390173</v>
+        <v>156.813588</v>
       </c>
       <c r="O2">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="P2">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
       <c r="Q2">
-        <v>182.101375487818</v>
+        <v>404.404506092824</v>
       </c>
       <c r="R2">
-        <v>1638.912379390362</v>
+        <v>3639.640554835416</v>
       </c>
       <c r="S2">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="T2">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H3">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.408729</v>
       </c>
       <c r="O3">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="P3">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
       <c r="Q3">
-        <v>0.842063213314</v>
+        <v>1.054065859208667</v>
       </c>
       <c r="R3">
-        <v>7.578568919826</v>
+        <v>9.486592732878</v>
       </c>
       <c r="S3">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="T3">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H4">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.839492</v>
+        <v>24.41792966666667</v>
       </c>
       <c r="N4">
-        <v>59.518476</v>
+        <v>73.253789</v>
       </c>
       <c r="O4">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="P4">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="Q4">
-        <v>122.619924576216</v>
+        <v>188.9132360135331</v>
       </c>
       <c r="R4">
-        <v>1103.579321185944</v>
+        <v>1700.219124121798</v>
       </c>
       <c r="S4">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="T4">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H5">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.897293666666666</v>
+        <v>3.585005</v>
       </c>
       <c r="N5">
-        <v>11.691881</v>
+        <v>10.755015</v>
       </c>
       <c r="O5">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="P5">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
       <c r="Q5">
-        <v>24.08760544161266</v>
+        <v>27.73596717330333</v>
       </c>
       <c r="R5">
-        <v>216.788448974514</v>
+        <v>249.62370455973</v>
       </c>
       <c r="S5">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="T5">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
     </row>
   </sheetData>
